--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>When files are &gt; 15, webserver is not responding</t>
   </si>
@@ -108,7 +108,7 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>When the directory/date folder entered is not available, there is no pop up saying "no such directory exists"</t>
+    <t>When the directory/date folder entered is not available, there is no pop up/error saying "no such directory exists"</t>
   </si>
 </sst>
 </file>
@@ -140,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -163,128 +163,29 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -591,7 +492,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -603,238 +504,267 @@
     <col min="7" max="7" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="11">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="16" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="13" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="17">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="14">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="18">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
